--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1538.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1538.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196036938995269</v>
+        <v>1.485167622566223</v>
       </c>
       <c r="B1">
-        <v>1.744235260654932</v>
+        <v>2.707624197006226</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.765398502349854</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.751126646995544</v>
       </c>
       <c r="E1">
-        <v>1.042916791568092</v>
+        <v>0.8974946141242981</v>
       </c>
     </row>
   </sheetData>
